--- a/NETWORK_ANALYSIS_SECOND_SEMESETER_BMED_2023/Copy of Award_List_CIRCUIT_ANALYSIS__SPECIAL_MID_2023_BMED_SECOND_SEMESTER.xlsx
+++ b/NETWORK_ANALYSIS_SECOND_SEMESETER_BMED_2023/Copy of Award_List_CIRCUIT_ANALYSIS__SPECIAL_MID_2023_BMED_SECOND_SEMESTER.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="124">
   <si>
     <t>Balochistan University of Engineering and Technology Khuzdar</t>
   </si>
@@ -477,6 +477,9 @@
   </si>
   <si>
     <t>2nd (Mid)</t>
+  </si>
+  <si>
+    <t>22BME26</t>
   </si>
 </sst>
 </file>
@@ -1470,6 +1473,21 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1488,20 +1506,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -1518,53 +1569,11 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1596,11 +1605,32 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1622,33 +1652,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2063,270 +2066,270 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="20" x14ac:dyDescent="0.4">
-      <c r="A1" s="121" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
-      <c r="G1" s="121"/>
-      <c r="H1" s="121"/>
-      <c r="I1" s="121"/>
-      <c r="J1" s="121"/>
+      <c r="A1" s="114" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
     </row>
     <row r="3" spans="1:10" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="122" t="s">
+      <c r="A3" s="115" t="s">
         <v>60</v>
       </c>
-      <c r="B3" s="122"/>
-      <c r="C3" s="122"/>
-      <c r="D3" s="122"/>
-      <c r="E3" s="122"/>
-      <c r="F3" s="122"/>
-      <c r="G3" s="122"/>
-      <c r="H3" s="122"/>
-      <c r="I3" s="122"/>
-      <c r="J3" s="122"/>
+      <c r="B3" s="115"/>
+      <c r="C3" s="115"/>
+      <c r="D3" s="115"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="115"/>
+      <c r="J3" s="115"/>
     </row>
     <row r="5" spans="1:10" ht="68.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="123" t="s">
+      <c r="A5" s="116" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="123"/>
-      <c r="C5" s="123"/>
-      <c r="D5" s="123"/>
-      <c r="E5" s="123"/>
-      <c r="F5" s="123"/>
-      <c r="G5" s="123"/>
-      <c r="H5" s="123"/>
-      <c r="I5" s="123"/>
-      <c r="J5" s="123"/>
+      <c r="B5" s="116"/>
+      <c r="C5" s="116"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="116"/>
+      <c r="F5" s="116"/>
+      <c r="G5" s="116"/>
+      <c r="H5" s="116"/>
+      <c r="I5" s="116"/>
+      <c r="J5" s="116"/>
     </row>
     <row r="7" spans="1:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="31">
         <v>1</v>
       </c>
-      <c r="B7" s="119" t="s">
+      <c r="B7" s="117" t="s">
         <v>48</v>
       </c>
-      <c r="C7" s="120"/>
-      <c r="D7" s="120"/>
-      <c r="E7" s="120"/>
-      <c r="F7" s="120"/>
-      <c r="G7" s="120"/>
-      <c r="H7" s="120"/>
-      <c r="I7" s="120"/>
-      <c r="J7" s="120"/>
+      <c r="C7" s="113"/>
+      <c r="D7" s="113"/>
+      <c r="E7" s="113"/>
+      <c r="F7" s="113"/>
+      <c r="G7" s="113"/>
+      <c r="H7" s="113"/>
+      <c r="I7" s="113"/>
+      <c r="J7" s="113"/>
     </row>
     <row r="8" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="31">
         <v>2</v>
       </c>
-      <c r="B8" s="120" t="s">
+      <c r="B8" s="113" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="120"/>
-      <c r="D8" s="120"/>
-      <c r="E8" s="120"/>
-      <c r="F8" s="120"/>
-      <c r="G8" s="120"/>
-      <c r="H8" s="120"/>
-      <c r="I8" s="120"/>
-      <c r="J8" s="120"/>
+      <c r="C8" s="113"/>
+      <c r="D8" s="113"/>
+      <c r="E8" s="113"/>
+      <c r="F8" s="113"/>
+      <c r="G8" s="113"/>
+      <c r="H8" s="113"/>
+      <c r="I8" s="113"/>
+      <c r="J8" s="113"/>
     </row>
     <row r="9" spans="1:10" ht="50.15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="31">
         <v>3</v>
       </c>
-      <c r="B9" s="119" t="s">
+      <c r="B9" s="117" t="s">
         <v>35</v>
       </c>
-      <c r="C9" s="120"/>
-      <c r="D9" s="120"/>
-      <c r="E9" s="120"/>
-      <c r="F9" s="120"/>
-      <c r="G9" s="120"/>
-      <c r="H9" s="120"/>
-      <c r="I9" s="120"/>
-      <c r="J9" s="120"/>
+      <c r="C9" s="113"/>
+      <c r="D9" s="113"/>
+      <c r="E9" s="113"/>
+      <c r="F9" s="113"/>
+      <c r="G9" s="113"/>
+      <c r="H9" s="113"/>
+      <c r="I9" s="113"/>
+      <c r="J9" s="113"/>
     </row>
     <row r="10" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="31">
         <v>4</v>
       </c>
-      <c r="B10" s="119" t="s">
+      <c r="B10" s="117" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="120"/>
-      <c r="D10" s="120"/>
-      <c r="E10" s="120"/>
-      <c r="F10" s="120"/>
-      <c r="G10" s="120"/>
-      <c r="H10" s="120"/>
-      <c r="I10" s="120"/>
-      <c r="J10" s="120"/>
+      <c r="C10" s="113"/>
+      <c r="D10" s="113"/>
+      <c r="E10" s="113"/>
+      <c r="F10" s="113"/>
+      <c r="G10" s="113"/>
+      <c r="H10" s="113"/>
+      <c r="I10" s="113"/>
+      <c r="J10" s="113"/>
     </row>
     <row r="11" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="31">
         <v>5</v>
       </c>
-      <c r="B11" s="116" t="s">
+      <c r="B11" s="121" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="117"/>
-      <c r="D11" s="117"/>
-      <c r="E11" s="117"/>
-      <c r="F11" s="117"/>
-      <c r="G11" s="117"/>
-      <c r="H11" s="117"/>
-      <c r="I11" s="117"/>
-      <c r="J11" s="118"/>
+      <c r="C11" s="122"/>
+      <c r="D11" s="122"/>
+      <c r="E11" s="122"/>
+      <c r="F11" s="122"/>
+      <c r="G11" s="122"/>
+      <c r="H11" s="122"/>
+      <c r="I11" s="122"/>
+      <c r="J11" s="123"/>
     </row>
     <row r="12" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="31">
         <v>6</v>
       </c>
-      <c r="B12" s="120" t="s">
+      <c r="B12" s="113" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="120"/>
-      <c r="D12" s="120"/>
-      <c r="E12" s="120"/>
-      <c r="F12" s="120"/>
-      <c r="G12" s="120"/>
-      <c r="H12" s="120"/>
-      <c r="I12" s="120"/>
-      <c r="J12" s="120"/>
+      <c r="C12" s="113"/>
+      <c r="D12" s="113"/>
+      <c r="E12" s="113"/>
+      <c r="F12" s="113"/>
+      <c r="G12" s="113"/>
+      <c r="H12" s="113"/>
+      <c r="I12" s="113"/>
+      <c r="J12" s="113"/>
     </row>
     <row r="13" spans="1:10" ht="61.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="31">
         <v>7</v>
       </c>
-      <c r="B13" s="119" t="s">
+      <c r="B13" s="117" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="119"/>
-      <c r="D13" s="119"/>
-      <c r="E13" s="119"/>
-      <c r="F13" s="119"/>
-      <c r="G13" s="119"/>
-      <c r="H13" s="119"/>
-      <c r="I13" s="119"/>
-      <c r="J13" s="119"/>
+      <c r="C13" s="117"/>
+      <c r="D13" s="117"/>
+      <c r="E13" s="117"/>
+      <c r="F13" s="117"/>
+      <c r="G13" s="117"/>
+      <c r="H13" s="117"/>
+      <c r="I13" s="117"/>
+      <c r="J13" s="117"/>
     </row>
     <row r="14" spans="1:10" ht="69" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="31">
         <v>8</v>
       </c>
-      <c r="B14" s="119" t="s">
+      <c r="B14" s="117" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="119"/>
-      <c r="D14" s="119"/>
-      <c r="E14" s="119"/>
-      <c r="F14" s="119"/>
-      <c r="G14" s="119"/>
-      <c r="H14" s="119"/>
-      <c r="I14" s="119"/>
-      <c r="J14" s="119"/>
+      <c r="C14" s="117"/>
+      <c r="D14" s="117"/>
+      <c r="E14" s="117"/>
+      <c r="F14" s="117"/>
+      <c r="G14" s="117"/>
+      <c r="H14" s="117"/>
+      <c r="I14" s="117"/>
+      <c r="J14" s="117"/>
     </row>
     <row r="15" spans="1:10" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="31">
         <v>9</v>
       </c>
-      <c r="B15" s="119" t="s">
+      <c r="B15" s="117" t="s">
         <v>56</v>
       </c>
-      <c r="C15" s="120"/>
-      <c r="D15" s="120"/>
-      <c r="E15" s="120"/>
-      <c r="F15" s="120"/>
-      <c r="G15" s="120"/>
-      <c r="H15" s="120"/>
-      <c r="I15" s="120"/>
-      <c r="J15" s="120"/>
+      <c r="C15" s="113"/>
+      <c r="D15" s="113"/>
+      <c r="E15" s="113"/>
+      <c r="F15" s="113"/>
+      <c r="G15" s="113"/>
+      <c r="H15" s="113"/>
+      <c r="I15" s="113"/>
+      <c r="J15" s="113"/>
     </row>
     <row r="16" spans="1:10" ht="22.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="31">
         <v>10</v>
       </c>
-      <c r="B16" s="116" t="s">
+      <c r="B16" s="121" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="117"/>
-      <c r="D16" s="117"/>
-      <c r="E16" s="117"/>
-      <c r="F16" s="117"/>
-      <c r="G16" s="117"/>
-      <c r="H16" s="117"/>
-      <c r="I16" s="117"/>
-      <c r="J16" s="118"/>
+      <c r="C16" s="122"/>
+      <c r="D16" s="122"/>
+      <c r="E16" s="122"/>
+      <c r="F16" s="122"/>
+      <c r="G16" s="122"/>
+      <c r="H16" s="122"/>
+      <c r="I16" s="122"/>
+      <c r="J16" s="123"/>
     </row>
     <row r="17" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="31">
         <v>11</v>
       </c>
-      <c r="B17" s="116" t="s">
+      <c r="B17" s="121" t="s">
         <v>45</v>
       </c>
-      <c r="C17" s="117"/>
-      <c r="D17" s="117"/>
-      <c r="E17" s="117"/>
-      <c r="F17" s="117"/>
-      <c r="G17" s="117"/>
-      <c r="H17" s="117"/>
-      <c r="I17" s="117"/>
-      <c r="J17" s="118"/>
+      <c r="C17" s="122"/>
+      <c r="D17" s="122"/>
+      <c r="E17" s="122"/>
+      <c r="F17" s="122"/>
+      <c r="G17" s="122"/>
+      <c r="H17" s="122"/>
+      <c r="I17" s="122"/>
+      <c r="J17" s="123"/>
     </row>
     <row r="18" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="31">
         <v>12</v>
       </c>
-      <c r="B18" s="116" t="s">
+      <c r="B18" s="121" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="117"/>
-      <c r="D18" s="117"/>
-      <c r="E18" s="117"/>
-      <c r="F18" s="117"/>
-      <c r="G18" s="117"/>
-      <c r="H18" s="117"/>
-      <c r="I18" s="117"/>
-      <c r="J18" s="118"/>
+      <c r="C18" s="122"/>
+      <c r="D18" s="122"/>
+      <c r="E18" s="122"/>
+      <c r="F18" s="122"/>
+      <c r="G18" s="122"/>
+      <c r="H18" s="122"/>
+      <c r="I18" s="122"/>
+      <c r="J18" s="123"/>
     </row>
     <row r="19" spans="1:10" ht="98.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="31">
         <v>13</v>
       </c>
-      <c r="B19" s="116" t="s">
+      <c r="B19" s="121" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="117"/>
-      <c r="D19" s="117"/>
-      <c r="E19" s="117"/>
-      <c r="F19" s="117"/>
-      <c r="G19" s="117"/>
-      <c r="H19" s="117"/>
-      <c r="I19" s="117"/>
-      <c r="J19" s="118"/>
+      <c r="C19" s="122"/>
+      <c r="D19" s="122"/>
+      <c r="E19" s="122"/>
+      <c r="F19" s="122"/>
+      <c r="G19" s="122"/>
+      <c r="H19" s="122"/>
+      <c r="I19" s="122"/>
+      <c r="J19" s="123"/>
     </row>
     <row r="20" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="31">
         <v>14</v>
       </c>
-      <c r="B20" s="113" t="s">
+      <c r="B20" s="118" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="114"/>
-      <c r="D20" s="114"/>
-      <c r="E20" s="114"/>
-      <c r="F20" s="114"/>
-      <c r="G20" s="114"/>
-      <c r="H20" s="114"/>
-      <c r="I20" s="114"/>
-      <c r="J20" s="115"/>
+      <c r="C20" s="119"/>
+      <c r="D20" s="119"/>
+      <c r="E20" s="119"/>
+      <c r="F20" s="119"/>
+      <c r="G20" s="119"/>
+      <c r="H20" s="119"/>
+      <c r="I20" s="119"/>
+      <c r="J20" s="120"/>
     </row>
     <row r="21" spans="1:10" ht="27" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="22" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
@@ -2336,13 +2339,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B8:J8"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="B10:J10"/>
-    <mergeCell ref="B7:J7"/>
-    <mergeCell ref="B9:J9"/>
     <mergeCell ref="B20:J20"/>
     <mergeCell ref="B17:J17"/>
     <mergeCell ref="B11:J11"/>
@@ -2353,6 +2349,13 @@
     <mergeCell ref="B14:J14"/>
     <mergeCell ref="B12:J12"/>
     <mergeCell ref="B13:J13"/>
+    <mergeCell ref="B8:J8"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="B10:J10"/>
+    <mergeCell ref="B7:J7"/>
+    <mergeCell ref="B9:J9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
@@ -2367,7 +2370,7 @@
   <dimension ref="A1:AI22"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15:I15"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" outlineLevelCol="1" x14ac:dyDescent="0.35"/>
@@ -2384,44 +2387,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A1" s="122" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="122"/>
-      <c r="C1" s="122"/>
-      <c r="D1" s="122"/>
-      <c r="E1" s="122"/>
-      <c r="F1" s="122"/>
-      <c r="G1" s="122"/>
-      <c r="H1" s="122"/>
-      <c r="I1" s="122"/>
+      <c r="A1" s="115" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
+      <c r="I1" s="115"/>
     </row>
     <row r="2" spans="1:34" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="B2" s="138" t="s">
+      <c r="B2" s="133" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="138"/>
-      <c r="D2" s="138"/>
-      <c r="E2" s="138"/>
-      <c r="F2" s="138"/>
-      <c r="G2" s="138"/>
-      <c r="H2" s="138"/>
-      <c r="I2" s="138"/>
+      <c r="C2" s="133"/>
+      <c r="D2" s="133"/>
+      <c r="E2" s="133"/>
+      <c r="F2" s="133"/>
+      <c r="G2" s="133"/>
+      <c r="H2" s="133"/>
+      <c r="I2" s="133"/>
     </row>
     <row r="3" spans="1:34" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="19" t="s">
         <v>32</v>
       </c>
       <c r="B3" s="19"/>
-      <c r="C3" s="144" t="s">
+      <c r="C3" s="139" t="s">
         <v>118</v>
       </c>
-      <c r="D3" s="144"/>
-      <c r="E3" s="144"/>
-      <c r="F3" s="144"/>
-      <c r="G3" s="144"/>
-      <c r="H3" s="144"/>
-      <c r="I3" s="144"/>
+      <c r="D3" s="139"/>
+      <c r="E3" s="139"/>
+      <c r="F3" s="139"/>
+      <c r="G3" s="139"/>
+      <c r="H3" s="139"/>
+      <c r="I3" s="139"/>
     </row>
     <row r="4" spans="1:34" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="19" t="s">
@@ -2434,28 +2437,28 @@
       <c r="D4" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="139">
+      <c r="E4" s="134">
         <v>2023</v>
       </c>
-      <c r="F4" s="139"/>
-      <c r="G4" s="139"/>
-      <c r="H4" s="139"/>
-      <c r="I4" s="139"/>
+      <c r="F4" s="134"/>
+      <c r="G4" s="134"/>
+      <c r="H4" s="134"/>
+      <c r="I4" s="134"/>
     </row>
     <row r="5" spans="1:34" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
         <v>31</v>
       </c>
       <c r="B5" s="16"/>
-      <c r="C5" s="140" t="s">
+      <c r="C5" s="135" t="s">
         <v>120</v>
       </c>
-      <c r="D5" s="140"/>
-      <c r="E5" s="140"/>
-      <c r="F5" s="140"/>
-      <c r="G5" s="140"/>
-      <c r="H5" s="140"/>
-      <c r="I5" s="140"/>
+      <c r="D5" s="135"/>
+      <c r="E5" s="135"/>
+      <c r="F5" s="135"/>
+      <c r="G5" s="135"/>
+      <c r="H5" s="135"/>
+      <c r="I5" s="135"/>
     </row>
     <row r="6" spans="1:34" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="10" t="s">
@@ -2468,32 +2471,32 @@
       <c r="D6" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="143" t="s">
+      <c r="E6" s="138" t="s">
         <v>121</v>
       </c>
-      <c r="F6" s="143"/>
-      <c r="G6" s="143"/>
-      <c r="H6" s="143"/>
-      <c r="I6" s="143"/>
+      <c r="F6" s="138"/>
+      <c r="G6" s="138"/>
+      <c r="H6" s="138"/>
+      <c r="I6" s="138"/>
     </row>
     <row r="7" spans="1:34" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="22"/>
-      <c r="C7" s="142" t="s">
+      <c r="C7" s="137" t="s">
         <v>62</v>
       </c>
-      <c r="D7" s="142"/>
+      <c r="D7" s="137"/>
       <c r="E7" s="24" t="s">
         <v>28</v>
       </c>
       <c r="F7" s="22"/>
-      <c r="G7" s="141">
+      <c r="G7" s="136">
         <v>3332634843</v>
       </c>
-      <c r="H7" s="141"/>
-      <c r="I7" s="141"/>
+      <c r="H7" s="136"/>
+      <c r="I7" s="136"/>
     </row>
     <row r="8" spans="1:34" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="22"/>
@@ -2507,24 +2510,24 @@
       <c r="I8" s="25"/>
     </row>
     <row r="9" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="129"/>
-      <c r="B9" s="133"/>
-      <c r="C9" s="131"/>
+      <c r="A9" s="124"/>
+      <c r="B9" s="128"/>
+      <c r="C9" s="126"/>
       <c r="D9" s="66"/>
-      <c r="E9" s="135" t="s">
+      <c r="E9" s="130" t="s">
         <v>2</v>
       </c>
-      <c r="F9" s="135"/>
-      <c r="G9" s="135"/>
-      <c r="H9" s="135"/>
-      <c r="I9" s="136" t="s">
+      <c r="F9" s="130"/>
+      <c r="G9" s="130"/>
+      <c r="H9" s="130"/>
+      <c r="I9" s="131" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:34" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="130"/>
-      <c r="B10" s="134"/>
-      <c r="C10" s="132"/>
+      <c r="A10" s="125"/>
+      <c r="B10" s="129"/>
+      <c r="C10" s="127"/>
       <c r="D10" s="50"/>
       <c r="E10" s="38">
         <v>1</v>
@@ -2534,15 +2537,15 @@
       </c>
       <c r="G10" s="38"/>
       <c r="H10" s="38"/>
-      <c r="I10" s="137"/>
+      <c r="I10" s="132"/>
     </row>
     <row r="11" spans="1:34" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A11" s="67"/>
       <c r="B11" s="41"/>
-      <c r="C11" s="124" t="s">
+      <c r="C11" s="140" t="s">
         <v>52</v>
       </c>
-      <c r="D11" s="125"/>
+      <c r="D11" s="141"/>
       <c r="E11" s="68">
         <v>10</v>
       </c>
@@ -2558,10 +2561,10 @@
     <row r="12" spans="1:34" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A12" s="71"/>
       <c r="B12" s="72"/>
-      <c r="C12" s="124" t="s">
+      <c r="C12" s="140" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="125"/>
+      <c r="D12" s="141"/>
       <c r="E12" s="38">
         <v>1</v>
       </c>
@@ -2575,10 +2578,10 @@
     <row r="13" spans="1:34" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A13" s="67"/>
       <c r="B13" s="41"/>
-      <c r="C13" s="124" t="s">
+      <c r="C13" s="140" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="125"/>
+      <c r="D13" s="141"/>
       <c r="E13" s="38">
         <v>2</v>
       </c>
@@ -2592,10 +2595,10 @@
     <row r="14" spans="1:34" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A14" s="74"/>
       <c r="B14" s="75"/>
-      <c r="C14" s="126" t="s">
+      <c r="C14" s="142" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="127"/>
+      <c r="D14" s="143"/>
       <c r="E14" s="69"/>
       <c r="F14" s="69"/>
       <c r="G14" s="69"/>
@@ -2669,13 +2672,13 @@
       <c r="D15" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="128" t="s">
+      <c r="E15" s="144" t="s">
         <v>58</v>
       </c>
-      <c r="F15" s="128"/>
-      <c r="G15" s="128"/>
-      <c r="H15" s="128"/>
-      <c r="I15" s="128"/>
+      <c r="F15" s="144"/>
+      <c r="G15" s="144"/>
+      <c r="H15" s="144"/>
+      <c r="I15" s="144"/>
       <c r="M15" s="37"/>
       <c r="Q15" s="37"/>
       <c r="U15" s="37"/>
@@ -2691,7 +2694,7 @@
         <v>106</v>
       </c>
       <c r="C16" s="97" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="D16" s="81"/>
       <c r="E16" s="96">
@@ -2791,6 +2794,11 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="18">
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E15:I15"/>
     <mergeCell ref="A9:A10"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="C9:C10"/>
@@ -2804,11 +2812,6 @@
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="E6:I6"/>
     <mergeCell ref="C3:I3"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E15:I15"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Formula" error="Entering data in this cell may cause error in calculation. " promptTitle="Formula" prompt="This cell contains formula, kindly do not enter any value in this cell." sqref="I16">
@@ -2847,52 +2850,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="20" x14ac:dyDescent="0.4">
-      <c r="A1" s="121" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
-      <c r="G1" s="121"/>
-      <c r="H1" s="121"/>
-      <c r="I1" s="121"/>
-      <c r="J1" s="121"/>
-      <c r="K1" s="121"/>
+      <c r="A1" s="114" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
+      <c r="K1" s="114"/>
     </row>
     <row r="2" spans="1:37" ht="19" x14ac:dyDescent="0.35">
-      <c r="A2" s="155" t="s">
+      <c r="A2" s="145" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="155"/>
-      <c r="C2" s="155"/>
-      <c r="D2" s="155"/>
-      <c r="E2" s="155"/>
-      <c r="F2" s="155"/>
-      <c r="G2" s="155"/>
-      <c r="H2" s="155"/>
-      <c r="I2" s="155"/>
-      <c r="J2" s="155"/>
-      <c r="K2" s="155"/>
+      <c r="B2" s="145"/>
+      <c r="C2" s="145"/>
+      <c r="D2" s="145"/>
+      <c r="E2" s="145"/>
+      <c r="F2" s="145"/>
+      <c r="G2" s="145"/>
+      <c r="H2" s="145"/>
+      <c r="I2" s="145"/>
+      <c r="J2" s="145"/>
+      <c r="K2" s="145"/>
     </row>
     <row r="3" spans="1:37" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="24" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="22"/>
-      <c r="C3" s="156" t="str">
+      <c r="C3" s="146" t="str">
         <f>'Mid Term Award'!$C$3</f>
         <v>BE BIOMEDICAL ENGINEERING</v>
       </c>
-      <c r="D3" s="156"/>
-      <c r="E3" s="156"/>
-      <c r="F3" s="156"/>
-      <c r="G3" s="156"/>
-      <c r="H3" s="156"/>
-      <c r="I3" s="156"/>
-      <c r="J3" s="156"/>
-      <c r="K3" s="156"/>
+      <c r="D3" s="146"/>
+      <c r="E3" s="146"/>
+      <c r="F3" s="146"/>
+      <c r="G3" s="146"/>
+      <c r="H3" s="146"/>
+      <c r="I3" s="146"/>
+      <c r="J3" s="146"/>
+      <c r="K3" s="146"/>
     </row>
     <row r="4" spans="1:37" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="24" t="s">
@@ -2907,56 +2910,56 @@
       <c r="E4" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="140">
+      <c r="F4" s="135">
         <f>'Mid Term Award'!$E$4</f>
         <v>2023</v>
       </c>
-      <c r="G4" s="140"/>
-      <c r="H4" s="140"/>
-      <c r="I4" s="140"/>
-      <c r="J4" s="140"/>
-      <c r="K4" s="140"/>
+      <c r="G4" s="135"/>
+      <c r="H4" s="135"/>
+      <c r="I4" s="135"/>
+      <c r="J4" s="135"/>
+      <c r="K4" s="135"/>
     </row>
     <row r="5" spans="1:37" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
         <v>31</v>
       </c>
       <c r="B5" s="16"/>
-      <c r="C5" s="140" t="str">
+      <c r="C5" s="135" t="str">
         <f>'Mid Term Award'!$C$5</f>
         <v>CIRCUIT ANALYSIS</v>
       </c>
-      <c r="D5" s="140"/>
-      <c r="E5" s="140"/>
-      <c r="F5" s="140"/>
-      <c r="G5" s="140"/>
-      <c r="H5" s="140"/>
-      <c r="I5" s="140"/>
-      <c r="J5" s="140"/>
-      <c r="K5" s="140"/>
+      <c r="D5" s="135"/>
+      <c r="E5" s="135"/>
+      <c r="F5" s="135"/>
+      <c r="G5" s="135"/>
+      <c r="H5" s="135"/>
+      <c r="I5" s="135"/>
+      <c r="J5" s="135"/>
+      <c r="K5" s="135"/>
     </row>
     <row r="6" spans="1:37" ht="25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="10" t="s">
         <v>25</v>
       </c>
       <c r="B6" s="22"/>
-      <c r="C6" s="152" t="str">
+      <c r="C6" s="154" t="str">
         <f>'Mid Term Award'!$C$6</f>
         <v>3+1</v>
       </c>
-      <c r="D6" s="152"/>
+      <c r="D6" s="154"/>
       <c r="E6" s="24" t="s">
         <v>30</v>
       </c>
       <c r="F6" s="25"/>
       <c r="G6" s="26"/>
-      <c r="H6" s="152" t="str">
+      <c r="H6" s="154" t="str">
         <f>'Mid Term Award'!$E$6</f>
         <v>EE-121</v>
       </c>
-      <c r="I6" s="152"/>
-      <c r="J6" s="152"/>
-      <c r="K6" s="152"/>
+      <c r="I6" s="154"/>
+      <c r="J6" s="154"/>
+      <c r="K6" s="154"/>
       <c r="L6" s="14"/>
       <c r="M6" s="14"/>
     </row>
@@ -2965,46 +2968,46 @@
         <v>29</v>
       </c>
       <c r="B7" s="9"/>
-      <c r="C7" s="154" t="str">
+      <c r="C7" s="156" t="str">
         <f>'Mid Term Award'!$C$7</f>
         <v>Dr. Wazir Muhammad</v>
       </c>
-      <c r="D7" s="154"/>
-      <c r="E7" s="154"/>
-      <c r="F7" s="154"/>
+      <c r="D7" s="156"/>
+      <c r="E7" s="156"/>
+      <c r="F7" s="156"/>
       <c r="G7" s="24" t="s">
         <v>28</v>
       </c>
       <c r="H7" s="22"/>
-      <c r="I7" s="153">
+      <c r="I7" s="155">
         <f>'Mid Term Award'!$G$7</f>
         <v>3332634843</v>
       </c>
-      <c r="J7" s="153"/>
-      <c r="K7" s="153"/>
+      <c r="J7" s="155"/>
+      <c r="K7" s="155"/>
     </row>
     <row r="8" spans="1:37" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="145"/>
-      <c r="B8" s="146"/>
-      <c r="C8" s="146"/>
-      <c r="D8" s="146"/>
-      <c r="E8" s="135" t="s">
+      <c r="A8" s="147"/>
+      <c r="B8" s="148"/>
+      <c r="C8" s="148"/>
+      <c r="D8" s="148"/>
+      <c r="E8" s="130" t="s">
         <v>19</v>
       </c>
-      <c r="F8" s="135"/>
-      <c r="G8" s="135"/>
-      <c r="H8" s="135"/>
-      <c r="I8" s="135"/>
-      <c r="J8" s="135"/>
+      <c r="F8" s="130"/>
+      <c r="G8" s="130"/>
+      <c r="H8" s="130"/>
+      <c r="I8" s="130"/>
+      <c r="J8" s="130"/>
       <c r="K8" s="51" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:37" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="147"/>
-      <c r="B9" s="148"/>
-      <c r="C9" s="148"/>
-      <c r="D9" s="148"/>
+      <c r="A9" s="149"/>
+      <c r="B9" s="150"/>
+      <c r="C9" s="150"/>
+      <c r="D9" s="150"/>
       <c r="E9" s="38">
         <v>1</v>
       </c>
@@ -3160,15 +3163,15 @@
       <c r="D14" s="101" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="149" t="s">
+      <c r="E14" s="151" t="s">
         <v>58</v>
       </c>
-      <c r="F14" s="150"/>
-      <c r="G14" s="150"/>
-      <c r="H14" s="150"/>
-      <c r="I14" s="150"/>
-      <c r="J14" s="150"/>
-      <c r="K14" s="151"/>
+      <c r="F14" s="152"/>
+      <c r="G14" s="152"/>
+      <c r="H14" s="152"/>
+      <c r="I14" s="152"/>
+      <c r="J14" s="152"/>
+      <c r="K14" s="153"/>
       <c r="P14" s="35"/>
       <c r="T14" s="35"/>
       <c r="X14" s="35"/>
@@ -5539,11 +5542,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="C3:K3"/>
-    <mergeCell ref="F4:K4"/>
-    <mergeCell ref="C5:K5"/>
     <mergeCell ref="E8:J8"/>
     <mergeCell ref="A8:D9"/>
     <mergeCell ref="E14:K14"/>
@@ -5551,6 +5549,11 @@
     <mergeCell ref="H6:K6"/>
     <mergeCell ref="I7:K7"/>
     <mergeCell ref="C7:F7"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="C3:K3"/>
+    <mergeCell ref="F4:K4"/>
+    <mergeCell ref="C5:K5"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="textLength" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Linked Value" error="Entering data in this cell may cause error. " promptTitle="Linked Value" prompt="This cell is linked with Mid Term Award, kindly do changes in Mid Term award only, that will reflect here automatically" sqref="A3:K7 D15:D38">
@@ -5595,103 +5598,103 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:47" ht="22.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="164" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="164"/>
-      <c r="C1" s="164"/>
-      <c r="D1" s="164"/>
-      <c r="E1" s="164"/>
-      <c r="F1" s="164"/>
-      <c r="G1" s="164"/>
-      <c r="H1" s="164"/>
-      <c r="I1" s="164"/>
-      <c r="J1" s="164"/>
-      <c r="K1" s="164"/>
-      <c r="L1" s="164"/>
-      <c r="M1" s="164"/>
+      <c r="A1" s="165" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="165"/>
+      <c r="C1" s="165"/>
+      <c r="D1" s="165"/>
+      <c r="E1" s="165"/>
+      <c r="F1" s="165"/>
+      <c r="G1" s="165"/>
+      <c r="H1" s="165"/>
+      <c r="I1" s="165"/>
+      <c r="J1" s="165"/>
+      <c r="K1" s="165"/>
+      <c r="L1" s="165"/>
+      <c r="M1" s="165"/>
     </row>
     <row r="2" spans="1:47" ht="19" x14ac:dyDescent="0.35">
-      <c r="A2" s="155" t="s">
+      <c r="A2" s="145" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="155"/>
-      <c r="C2" s="155"/>
-      <c r="D2" s="155"/>
-      <c r="E2" s="155"/>
-      <c r="F2" s="155"/>
-      <c r="G2" s="155"/>
-      <c r="H2" s="155"/>
-      <c r="I2" s="155"/>
-      <c r="J2" s="155"/>
-      <c r="K2" s="155"/>
-      <c r="L2" s="155"/>
-      <c r="M2" s="155"/>
+      <c r="B2" s="145"/>
+      <c r="C2" s="145"/>
+      <c r="D2" s="145"/>
+      <c r="E2" s="145"/>
+      <c r="F2" s="145"/>
+      <c r="G2" s="145"/>
+      <c r="H2" s="145"/>
+      <c r="I2" s="145"/>
+      <c r="J2" s="145"/>
+      <c r="K2" s="145"/>
+      <c r="L2" s="145"/>
+      <c r="M2" s="145"/>
     </row>
     <row r="3" spans="1:47" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="24" t="s">
         <v>33</v>
       </c>
       <c r="B3" s="22"/>
-      <c r="C3" s="141" t="str">
+      <c r="C3" s="136" t="str">
         <f>'Mid Term Award'!$C$3</f>
         <v>BE BIOMEDICAL ENGINEERING</v>
       </c>
-      <c r="D3" s="141"/>
-      <c r="E3" s="141"/>
-      <c r="F3" s="141"/>
-      <c r="G3" s="141"/>
-      <c r="H3" s="141"/>
-      <c r="I3" s="141"/>
-      <c r="J3" s="141"/>
-      <c r="K3" s="141"/>
-      <c r="L3" s="141"/>
-      <c r="M3" s="141"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="136"/>
+      <c r="F3" s="136"/>
+      <c r="G3" s="136"/>
+      <c r="H3" s="136"/>
+      <c r="I3" s="136"/>
+      <c r="J3" s="136"/>
+      <c r="K3" s="136"/>
+      <c r="L3" s="136"/>
+      <c r="M3" s="136"/>
     </row>
     <row r="4" spans="1:47" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="24" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="20"/>
-      <c r="C4" s="140" t="str">
+      <c r="C4" s="135" t="str">
         <f>'Mid Term Award'!$C$4</f>
         <v>2nd (Mid)</v>
       </c>
-      <c r="D4" s="140"/>
-      <c r="E4" s="140"/>
-      <c r="F4" s="140"/>
+      <c r="D4" s="135"/>
+      <c r="E4" s="135"/>
+      <c r="F4" s="135"/>
       <c r="G4" s="24"/>
       <c r="H4" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="144">
+      <c r="I4" s="139">
         <f>'Mid Term Award'!$E$4</f>
         <v>2023</v>
       </c>
-      <c r="J4" s="144"/>
-      <c r="K4" s="144"/>
-      <c r="L4" s="144"/>
-      <c r="M4" s="144"/>
+      <c r="J4" s="139"/>
+      <c r="K4" s="139"/>
+      <c r="L4" s="139"/>
+      <c r="M4" s="139"/>
     </row>
     <row r="5" spans="1:47" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
         <v>31</v>
       </c>
       <c r="B5" s="11"/>
-      <c r="C5" s="140" t="str">
+      <c r="C5" s="135" t="str">
         <f>'Mid Term Award'!$C$5</f>
         <v>CIRCUIT ANALYSIS</v>
       </c>
-      <c r="D5" s="140"/>
-      <c r="E5" s="140"/>
-      <c r="F5" s="140"/>
-      <c r="G5" s="140"/>
-      <c r="H5" s="140"/>
-      <c r="I5" s="140"/>
-      <c r="J5" s="140"/>
-      <c r="K5" s="140"/>
-      <c r="L5" s="140"/>
-      <c r="M5" s="140"/>
+      <c r="D5" s="135"/>
+      <c r="E5" s="135"/>
+      <c r="F5" s="135"/>
+      <c r="G5" s="135"/>
+      <c r="H5" s="135"/>
+      <c r="I5" s="135"/>
+      <c r="J5" s="135"/>
+      <c r="K5" s="135"/>
+      <c r="L5" s="135"/>
+      <c r="M5" s="135"/>
     </row>
     <row r="6" spans="1:47" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="10" t="s">
@@ -5708,83 +5711,83 @@
       </c>
       <c r="F6" s="24"/>
       <c r="G6" s="24"/>
-      <c r="H6" s="152" t="str">
+      <c r="H6" s="154" t="str">
         <f>'Mid Term Award'!$E$6</f>
         <v>EE-121</v>
       </c>
-      <c r="I6" s="152"/>
-      <c r="J6" s="152"/>
-      <c r="K6" s="152"/>
-      <c r="L6" s="152"/>
-      <c r="M6" s="152"/>
+      <c r="I6" s="154"/>
+      <c r="J6" s="154"/>
+      <c r="K6" s="154"/>
+      <c r="L6" s="154"/>
+      <c r="M6" s="154"/>
     </row>
     <row r="7" spans="1:47" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="19"/>
-      <c r="C7" s="142" t="str">
+      <c r="C7" s="137" t="str">
         <f>'Mid Term Award'!$C$7</f>
         <v>Dr. Wazir Muhammad</v>
       </c>
-      <c r="D7" s="142"/>
+      <c r="D7" s="137"/>
       <c r="E7" s="24" t="s">
         <v>28</v>
       </c>
       <c r="F7" s="19"/>
-      <c r="G7" s="169">
+      <c r="G7" s="161">
         <f>'Mid Term Award'!$G$7</f>
         <v>3332634843</v>
       </c>
-      <c r="H7" s="170"/>
-      <c r="I7" s="170"/>
-      <c r="J7" s="170"/>
-      <c r="K7" s="170"/>
-      <c r="L7" s="170"/>
-      <c r="M7" s="170"/>
+      <c r="H7" s="162"/>
+      <c r="I7" s="162"/>
+      <c r="J7" s="162"/>
+      <c r="K7" s="162"/>
+      <c r="L7" s="162"/>
+      <c r="M7" s="162"/>
     </row>
     <row r="8" spans="1:47" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="163" t="s">
+      <c r="A8" s="172" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="163"/>
-      <c r="C8" s="163"/>
-      <c r="D8" s="163"/>
-      <c r="E8" s="163"/>
-      <c r="F8" s="163"/>
-      <c r="G8" s="163"/>
-      <c r="H8" s="163"/>
-      <c r="I8" s="163"/>
-      <c r="J8" s="163"/>
-      <c r="K8" s="163"/>
-      <c r="L8" s="163"/>
-      <c r="M8" s="163"/>
+      <c r="B8" s="172"/>
+      <c r="C8" s="172"/>
+      <c r="D8" s="172"/>
+      <c r="E8" s="172"/>
+      <c r="F8" s="172"/>
+      <c r="G8" s="172"/>
+      <c r="H8" s="172"/>
+      <c r="I8" s="172"/>
+      <c r="J8" s="172"/>
+      <c r="K8" s="172"/>
+      <c r="L8" s="172"/>
+      <c r="M8" s="172"/>
     </row>
     <row r="9" spans="1:47" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="157"/>
-      <c r="B9" s="157"/>
-      <c r="C9" s="171"/>
+      <c r="A9" s="166"/>
+      <c r="B9" s="166"/>
+      <c r="C9" s="163"/>
       <c r="D9" s="52"/>
-      <c r="E9" s="159" t="s">
+      <c r="E9" s="168" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="160"/>
-      <c r="G9" s="160"/>
-      <c r="H9" s="162"/>
-      <c r="I9" s="159" t="s">
+      <c r="F9" s="169"/>
+      <c r="G9" s="169"/>
+      <c r="H9" s="171"/>
+      <c r="I9" s="168" t="s">
         <v>22</v>
       </c>
-      <c r="J9" s="160"/>
-      <c r="K9" s="160"/>
-      <c r="L9" s="161"/>
+      <c r="J9" s="169"/>
+      <c r="K9" s="169"/>
+      <c r="L9" s="170"/>
       <c r="M9" s="53" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:47" ht="17.5" x14ac:dyDescent="0.35">
-      <c r="A10" s="158"/>
-      <c r="B10" s="158"/>
-      <c r="C10" s="172"/>
+      <c r="A10" s="167"/>
+      <c r="B10" s="167"/>
+      <c r="C10" s="164"/>
       <c r="D10" s="54"/>
       <c r="E10" s="55">
         <v>1</v>
@@ -5838,10 +5841,10 @@
     <row r="12" spans="1:47" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A12" s="65"/>
       <c r="B12" s="65"/>
-      <c r="C12" s="165" t="s">
+      <c r="C12" s="157" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="166"/>
+      <c r="D12" s="158"/>
       <c r="E12" s="63">
         <v>3</v>
       </c>
@@ -5859,10 +5862,10 @@
     <row r="13" spans="1:47" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A13" s="65"/>
       <c r="B13" s="65"/>
-      <c r="C13" s="165" t="s">
+      <c r="C13" s="157" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="166"/>
+      <c r="D13" s="158"/>
       <c r="E13" s="63">
         <v>5</v>
       </c>
@@ -5880,10 +5883,10 @@
     <row r="14" spans="1:47" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A14" s="65"/>
       <c r="B14" s="65"/>
-      <c r="C14" s="165" t="s">
+      <c r="C14" s="157" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="166"/>
+      <c r="D14" s="158"/>
       <c r="E14" s="63"/>
       <c r="F14" s="63"/>
       <c r="G14" s="38"/>
@@ -5979,16 +5982,16 @@
       <c r="D15" s="108" t="s">
         <v>15</v>
       </c>
-      <c r="E15" s="167" t="s">
+      <c r="E15" s="159" t="s">
         <v>58</v>
       </c>
-      <c r="F15" s="167"/>
-      <c r="G15" s="167"/>
-      <c r="H15" s="167"/>
-      <c r="I15" s="167"/>
-      <c r="J15" s="167"/>
-      <c r="K15" s="167"/>
-      <c r="L15" s="168"/>
+      <c r="F15" s="159"/>
+      <c r="G15" s="159"/>
+      <c r="H15" s="159"/>
+      <c r="I15" s="159"/>
+      <c r="J15" s="159"/>
+      <c r="K15" s="159"/>
+      <c r="L15" s="160"/>
       <c r="M15" s="109"/>
       <c r="R15" s="35"/>
       <c r="V15" s="35"/>
@@ -9023,12 +9026,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E15:L15"/>
-    <mergeCell ref="G7:M7"/>
-    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="A8:M8"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A2:M2"/>
     <mergeCell ref="I4:M4"/>
@@ -9036,12 +9039,12 @@
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="H6:M6"/>
     <mergeCell ref="C3:M3"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="A8:M8"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E15:L15"/>
+    <mergeCell ref="G7:M7"/>
+    <mergeCell ref="C9:C10"/>
   </mergeCells>
   <conditionalFormatting sqref="M16:M39">
     <cfRule type="cellIs" dxfId="8" priority="1" operator="equal">
@@ -9115,55 +9118,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="20" x14ac:dyDescent="0.4">
-      <c r="A1" s="121" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
-      <c r="G1" s="121"/>
-      <c r="H1" s="121"/>
-      <c r="I1" s="121"/>
-      <c r="J1" s="121"/>
-      <c r="K1" s="121"/>
-      <c r="L1" s="121"/>
+      <c r="A1" s="114" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="114"/>
+      <c r="G1" s="114"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
+      <c r="K1" s="114"/>
+      <c r="L1" s="114"/>
     </row>
     <row r="2" spans="1:43" ht="19" x14ac:dyDescent="0.35">
-      <c r="A2" s="155" t="s">
+      <c r="A2" s="145" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="155"/>
-      <c r="C2" s="155"/>
-      <c r="D2" s="155"/>
-      <c r="E2" s="155"/>
-      <c r="F2" s="155"/>
-      <c r="G2" s="155"/>
-      <c r="H2" s="155"/>
-      <c r="I2" s="155"/>
-      <c r="J2" s="155"/>
-      <c r="K2" s="155"/>
-      <c r="L2" s="155"/>
+      <c r="B2" s="145"/>
+      <c r="C2" s="145"/>
+      <c r="D2" s="145"/>
+      <c r="E2" s="145"/>
+      <c r="F2" s="145"/>
+      <c r="G2" s="145"/>
+      <c r="H2" s="145"/>
+      <c r="I2" s="145"/>
+      <c r="J2" s="145"/>
+      <c r="K2" s="145"/>
+      <c r="L2" s="145"/>
     </row>
     <row r="3" spans="1:43" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="24" t="s">
         <v>33</v>
       </c>
       <c r="B3" s="22"/>
-      <c r="C3" s="141" t="str">
+      <c r="C3" s="136" t="str">
         <f>'Mid Term Award'!$C$3</f>
         <v>BE BIOMEDICAL ENGINEERING</v>
       </c>
-      <c r="D3" s="141"/>
-      <c r="E3" s="141"/>
-      <c r="F3" s="141"/>
-      <c r="G3" s="141"/>
-      <c r="H3" s="141"/>
-      <c r="I3" s="141"/>
-      <c r="J3" s="141"/>
-      <c r="K3" s="141"/>
-      <c r="L3" s="141"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="136"/>
+      <c r="F3" s="136"/>
+      <c r="G3" s="136"/>
+      <c r="H3" s="136"/>
+      <c r="I3" s="136"/>
+      <c r="J3" s="136"/>
+      <c r="K3" s="136"/>
+      <c r="L3" s="136"/>
     </row>
     <row r="4" spans="1:43" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="27" t="s">
@@ -9194,88 +9197,88 @@
         <v>31</v>
       </c>
       <c r="B5" s="9"/>
-      <c r="C5" s="140" t="str">
+      <c r="C5" s="135" t="str">
         <f>'Mid Term Award'!$C$5</f>
         <v>CIRCUIT ANALYSIS</v>
       </c>
-      <c r="D5" s="140"/>
-      <c r="E5" s="140"/>
-      <c r="F5" s="140"/>
-      <c r="G5" s="140"/>
-      <c r="H5" s="140"/>
-      <c r="I5" s="140"/>
-      <c r="J5" s="140"/>
-      <c r="K5" s="140"/>
-      <c r="L5" s="140"/>
+      <c r="D5" s="135"/>
+      <c r="E5" s="135"/>
+      <c r="F5" s="135"/>
+      <c r="G5" s="135"/>
+      <c r="H5" s="135"/>
+      <c r="I5" s="135"/>
+      <c r="J5" s="135"/>
+      <c r="K5" s="135"/>
+      <c r="L5" s="135"/>
     </row>
     <row r="6" spans="1:43" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
         <v>25</v>
       </c>
       <c r="B6" s="30"/>
-      <c r="C6" s="143" t="str">
+      <c r="C6" s="138" t="str">
         <f>'Mid Term Award'!$C$6</f>
         <v>3+1</v>
       </c>
-      <c r="D6" s="143"/>
-      <c r="E6" s="143"/>
+      <c r="D6" s="138"/>
+      <c r="E6" s="138"/>
       <c r="F6" s="11" t="s">
         <v>26</v>
       </c>
       <c r="G6" s="26"/>
       <c r="H6" s="26"/>
-      <c r="I6" s="143" t="str">
+      <c r="I6" s="138" t="str">
         <f>'Mid Term Award'!$E$6</f>
         <v>EE-121</v>
       </c>
-      <c r="J6" s="143"/>
-      <c r="K6" s="143"/>
-      <c r="L6" s="143"/>
+      <c r="J6" s="138"/>
+      <c r="K6" s="138"/>
+      <c r="L6" s="138"/>
     </row>
     <row r="7" spans="1:43" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
         <v>27</v>
       </c>
       <c r="B7" s="9"/>
-      <c r="C7" s="140" t="str">
+      <c r="C7" s="135" t="str">
         <f>'Mid Term Award'!$C$7</f>
         <v>Dr. Wazir Muhammad</v>
       </c>
-      <c r="D7" s="140"/>
-      <c r="E7" s="140"/>
-      <c r="F7" s="140"/>
+      <c r="D7" s="135"/>
+      <c r="E7" s="135"/>
+      <c r="F7" s="135"/>
       <c r="G7" s="24" t="s">
         <v>28</v>
       </c>
       <c r="H7" s="22"/>
-      <c r="I7" s="170">
+      <c r="I7" s="162">
         <f>'Mid Term Award'!$G$7</f>
         <v>3332634843</v>
       </c>
-      <c r="J7" s="170"/>
-      <c r="K7" s="170"/>
-      <c r="L7" s="170"/>
+      <c r="J7" s="162"/>
+      <c r="K7" s="162"/>
+      <c r="L7" s="162"/>
     </row>
     <row r="8" spans="1:43" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="163" t="s">
+      <c r="A8" s="172" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="163"/>
-      <c r="C8" s="163"/>
-      <c r="D8" s="163"/>
-      <c r="E8" s="163"/>
-      <c r="F8" s="163"/>
-      <c r="G8" s="163"/>
-      <c r="H8" s="163"/>
-      <c r="I8" s="163"/>
-      <c r="J8" s="163"/>
-      <c r="K8" s="163"/>
-      <c r="L8" s="163"/>
+      <c r="B8" s="172"/>
+      <c r="C8" s="172"/>
+      <c r="D8" s="172"/>
+      <c r="E8" s="172"/>
+      <c r="F8" s="172"/>
+      <c r="G8" s="172"/>
+      <c r="H8" s="172"/>
+      <c r="I8" s="172"/>
+      <c r="J8" s="172"/>
+      <c r="K8" s="172"/>
+      <c r="L8" s="172"/>
     </row>
     <row r="9" spans="1:43" ht="60" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="174"/>
-      <c r="B9" s="157"/>
-      <c r="C9" s="157"/>
+      <c r="B9" s="166"/>
+      <c r="C9" s="166"/>
       <c r="D9" s="82"/>
       <c r="E9" s="176" t="s">
         <v>2</v>
@@ -9292,8 +9295,8 @@
     </row>
     <row r="10" spans="1:43" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A10" s="175"/>
-      <c r="B10" s="158"/>
-      <c r="C10" s="158"/>
+      <c r="B10" s="167"/>
+      <c r="C10" s="167"/>
       <c r="D10" s="83"/>
       <c r="E10" s="78">
         <v>1</v>
